--- a/pokemon_LeagueTable/帮战座位表20250503(中文版本).xlsx
+++ b/pokemon_LeagueTable/帮战座位表20250503(中文版本).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fjhmy\Documents\GitHub\Pokemon\pokemon_LeagueTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5656C9-1BB9-47AE-B52B-F47391A2AE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54304F80-7B6B-4EFE-9AF2-3A3F6917CD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="0" windowWidth="30540" windowHeight="18480" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="624">
   <si>
     <t>山海帮战座位表</t>
   </si>
@@ -698,9 +698,6 @@
     <t>槿屿</t>
   </si>
   <si>
-    <t>4.一经发表后请假的，如果没有替补成员，请自行找代练，如果需要帮会招人试训，不保证后续能安排上场。</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2102,6 +2099,10 @@
       </rPr>
       <t>（05.03 20:00-21:00）</t>
     </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.一经发表后请假的，如果没有替补成员，请自行找代练，如果需要帮会招人试训，不保证后续能安排上场。</t>
     <phoneticPr fontId="46" type="noConversion"/>
   </si>
 </sst>
@@ -3250,45 +3251,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3309,6 +3271,45 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4690,7 +4691,7 @@
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="185" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C1" s="186"/>
       <c r="D1" s="186"/>
@@ -4700,7 +4701,7 @@
       <c r="H1" s="187"/>
       <c r="J1" s="4"/>
       <c r="K1" s="188" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L1" s="189"/>
       <c r="M1" s="189"/>
@@ -4715,56 +4716,56 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="184" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T2" s="184"/>
       <c r="U2" s="184"/>
@@ -4774,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C3" s="6">
         <v>7</v>
@@ -4794,7 +4795,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L3" s="6">
         <v>0</v>
@@ -4846,7 +4847,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -4878,7 +4879,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -4898,7 +4899,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L5" s="6">
         <v>1</v>
@@ -4950,7 +4951,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -5002,7 +5003,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -5034,7 +5035,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C8" s="6">
         <v>3</v>
@@ -5054,7 +5055,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -5106,7 +5107,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -5124,7 +5125,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T9" s="6">
         <v>4</v>
@@ -5138,7 +5139,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -5158,7 +5159,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -5184,7 +5185,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -5204,7 +5205,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L11" s="6">
         <v>1</v>
@@ -5230,7 +5231,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -5250,7 +5251,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -5296,7 +5297,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -5324,7 +5325,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -5344,7 +5345,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -5370,7 +5371,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -5390,7 +5391,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -5438,7 +5439,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -5464,7 +5465,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -5484,7 +5485,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L17" s="6">
         <v>0</v>
@@ -5510,7 +5511,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -5530,7 +5531,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -5580,7 +5581,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -5602,7 +5603,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
@@ -5668,7 +5669,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
@@ -5714,7 +5715,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
@@ -5806,7 +5807,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -5852,7 +5853,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -5876,7 +5877,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -5946,7 +5947,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C36" s="6">
         <v>0</v>
@@ -5970,7 +5971,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C37" s="6">
         <v>0</v>
@@ -6082,7 +6083,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -6148,7 +6149,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C45" s="6">
         <v>0</v>
@@ -6192,7 +6193,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -6254,7 +6255,7 @@
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="185" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C1" s="186"/>
       <c r="D1" s="186"/>
@@ -6264,7 +6265,7 @@
       <c r="H1" s="187"/>
       <c r="J1" s="4"/>
       <c r="K1" s="188" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L1" s="189"/>
       <c r="M1" s="189"/>
@@ -6279,56 +6280,56 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="184" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T2" s="184"/>
       <c r="U2" s="184"/>
@@ -6338,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C3" s="6">
         <v>41</v>
@@ -6358,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L3" s="6">
         <v>10</v>
@@ -6410,7 +6411,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L4" s="6">
         <v>13</v>
@@ -6462,7 +6463,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L5" s="6">
         <v>7</v>
@@ -6514,7 +6515,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L6" s="6">
         <v>22</v>
@@ -6558,7 +6559,7 @@
         <v>1153</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -6566,7 +6567,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L7" s="6">
         <v>15</v>
@@ -6618,7 +6619,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L8" s="6">
         <v>11</v>
@@ -6650,7 +6651,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" s="6">
         <v>14</v>
@@ -6670,7 +6671,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L9" s="6">
         <v>26</v>
@@ -6688,7 +6689,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T9" s="6">
         <v>2</v>
@@ -6702,7 +6703,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C10" s="6">
         <v>26</v>
@@ -6722,7 +6723,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L10" s="6">
         <v>19</v>
@@ -6768,7 +6769,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L11" s="6">
         <v>18</v>
@@ -6794,7 +6795,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C12" s="6">
         <v>21</v>
@@ -6814,7 +6815,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L12" s="6">
         <v>13</v>
@@ -6860,7 +6861,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L13" s="6">
         <v>12</v>
@@ -6886,7 +6887,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C14" s="6">
         <v>17</v>
@@ -6906,7 +6907,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L14" s="6">
         <v>9</v>
@@ -6932,7 +6933,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="6">
         <v>5</v>
@@ -6952,7 +6953,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L15" s="6">
         <v>15</v>
@@ -6978,7 +6979,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C16" s="6">
         <v>18</v>
@@ -6998,7 +6999,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L16" s="6">
         <v>19</v>
@@ -7044,7 +7045,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L17" s="6">
         <v>9</v>
@@ -7072,7 +7073,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C18" s="6">
         <v>10</v>
@@ -7092,7 +7093,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L18" s="6">
         <v>9</v>
@@ -7138,7 +7139,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L19" s="6">
         <v>9</v>
@@ -7166,7 +7167,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C20" s="6">
         <v>9</v>
@@ -7186,7 +7187,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L20" s="6">
         <v>4</v>
@@ -7212,7 +7213,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C21" s="6">
         <v>15</v>
@@ -7232,7 +7233,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L21" s="6">
         <v>10</v>
@@ -7278,7 +7279,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L22" s="6">
         <v>11</v>
@@ -7304,7 +7305,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C23" s="6">
         <v>11</v>
@@ -7324,7 +7325,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L23" s="6">
         <v>1</v>
@@ -7370,7 +7371,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L24" s="6">
         <v>7</v>
@@ -7416,7 +7417,7 @@
         <v>23</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L25" s="6">
         <v>4</v>
@@ -7462,7 +7463,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L26" s="6">
         <v>4</v>
@@ -7508,7 +7509,7 @@
         <v>25</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L27" s="6">
         <v>10</v>
@@ -7554,7 +7555,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L28" s="6">
         <v>5</v>
@@ -7600,7 +7601,7 @@
         <v>27</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L29" s="6">
         <v>6</v>
@@ -7646,7 +7647,7 @@
         <v>28</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L30" s="6">
         <v>4</v>
@@ -7692,7 +7693,7 @@
         <v>29</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L31" s="6">
         <v>5</v>
@@ -7738,7 +7739,7 @@
         <v>30</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L32" s="6">
         <v>0</v>
@@ -7764,7 +7765,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -7784,7 +7785,7 @@
         <v>31</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L33" s="6">
         <v>2</v>
@@ -7810,7 +7811,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C34" s="6">
         <v>6</v>
@@ -7830,7 +7831,7 @@
         <v>32</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L34" s="6">
         <v>0</v>
@@ -7858,7 +7859,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C35" s="6">
         <v>6</v>
@@ -7880,7 +7881,7 @@
         <v>33</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L35" s="6">
         <v>1</v>
@@ -7928,7 +7929,7 @@
         <v>34</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L36" s="6">
         <v>2</v>
@@ -7978,7 +7979,7 @@
         <v>35</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L37" s="6">
         <v>0</v>
@@ -8028,7 +8029,7 @@
         <v>36</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L38" s="6">
         <v>0</v>
@@ -8078,7 +8079,7 @@
         <v>37</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L39" s="6">
         <v>0</v>
@@ -8106,7 +8107,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -8128,7 +8129,7 @@
         <v>38</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L40" s="6">
         <v>0</v>
@@ -8156,7 +8157,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -8178,7 +8179,7 @@
         <v>39</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L41" s="6">
         <v>0</v>
@@ -8206,7 +8207,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -8254,7 +8255,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C44" s="6">
         <v>0</v>
@@ -8326,7 +8327,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -8350,7 +8351,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C48" s="6">
         <v>0</v>
@@ -8508,7 +8509,7 @@
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="185" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C1" s="186"/>
       <c r="D1" s="186"/>
@@ -8518,7 +8519,7 @@
       <c r="H1" s="187"/>
       <c r="J1" s="4"/>
       <c r="K1" s="188" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L1" s="189"/>
       <c r="M1" s="189"/>
@@ -8533,56 +8534,56 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="184" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T2" s="184"/>
       <c r="U2" s="184"/>
@@ -8592,7 +8593,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C3" s="6">
         <v>14</v>
@@ -8612,7 +8613,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L3" s="6">
         <v>11</v>
@@ -8664,7 +8665,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L4" s="6">
         <v>2</v>
@@ -8716,7 +8717,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L5" s="6">
         <v>6</v>
@@ -8748,7 +8749,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -8768,7 +8769,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L6" s="6">
         <v>3</v>
@@ -8820,7 +8821,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L7" s="6">
         <v>1</v>
@@ -8872,7 +8873,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L8" s="6">
         <v>1</v>
@@ -8904,7 +8905,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -8924,7 +8925,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L9" s="6">
         <v>1</v>
@@ -8942,7 +8943,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T9" s="6">
         <v>3</v>
@@ -8956,7 +8957,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C10" s="6">
         <v>3</v>
@@ -8976,7 +8977,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -9022,7 +9023,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L11" s="6">
         <v>7</v>
@@ -9048,7 +9049,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C12" s="6">
         <v>5</v>
@@ -9068,7 +9069,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L12" s="6">
         <v>1</v>
@@ -9094,7 +9095,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -9116,7 +9117,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L13" s="6">
         <v>2</v>
@@ -9162,7 +9163,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L14" s="6">
         <v>3</v>
@@ -9188,7 +9189,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C15" s="6">
         <v>3</v>
@@ -9208,7 +9209,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L15" s="6">
         <v>2</v>
@@ -9254,7 +9255,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L16" s="6">
         <v>2</v>
@@ -9302,7 +9303,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L17" s="6">
         <v>1</v>
@@ -9348,7 +9349,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L18" s="6">
         <v>1</v>
@@ -9374,7 +9375,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -9394,7 +9395,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L19" s="6">
         <v>0</v>
@@ -9440,7 +9441,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L20" s="6">
         <v>2</v>
@@ -9466,7 +9467,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -9486,7 +9487,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L21" s="6">
         <v>0</v>
@@ -9512,7 +9513,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -9534,7 +9535,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L22" s="6">
         <v>0</v>
@@ -9560,7 +9561,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
@@ -9580,7 +9581,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L23" s="6">
         <v>0</v>
@@ -9608,7 +9609,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -9628,7 +9629,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L24" s="6">
         <v>0</v>
@@ -9676,7 +9677,7 @@
         <v>23</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L25" s="6">
         <v>0</v>
@@ -9724,7 +9725,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L26" s="6">
         <v>0</v>
@@ -9772,7 +9773,7 @@
         <v>25</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L27" s="6">
         <v>0</v>
@@ -9818,7 +9819,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L28" s="6">
         <v>0</v>
@@ -9846,7 +9847,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -9866,7 +9867,7 @@
         <v>27</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L29" s="6">
         <v>0</v>
@@ -9914,7 +9915,7 @@
         <v>28</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L30" s="6">
         <v>0</v>
@@ -9942,7 +9943,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -9962,7 +9963,7 @@
         <v>29</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L31" s="6">
         <v>0</v>
@@ -10008,7 +10009,7 @@
         <v>30</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L32" s="6">
         <v>0</v>
@@ -10036,7 +10037,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
@@ -10056,7 +10057,7 @@
         <v>31</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L33" s="6">
         <v>0</v>
@@ -10102,7 +10103,7 @@
         <v>32</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L34" s="6">
         <v>0</v>
@@ -10148,7 +10149,7 @@
         <v>33</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L35" s="6">
         <v>0</v>
@@ -10210,7 +10211,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C37" s="6">
         <v>0</v>
@@ -10246,7 +10247,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -10466,7 +10467,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C45" s="6">
         <v>0</v>
@@ -10490,7 +10491,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -10514,7 +10515,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -10538,7 +10539,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C48" s="6">
         <v>0</v>
@@ -10600,7 +10601,7 @@
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="185" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C1" s="186"/>
       <c r="D1" s="186"/>
@@ -10610,7 +10611,7 @@
       <c r="H1" s="187"/>
       <c r="J1" s="4"/>
       <c r="K1" s="188" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L1" s="189"/>
       <c r="M1" s="189"/>
@@ -10625,56 +10626,56 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="184" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T2" s="184"/>
       <c r="U2" s="184"/>
@@ -10684,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -10700,7 +10701,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -10728,7 +10729,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -10744,7 +10745,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -10772,7 +10773,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -10788,7 +10789,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -10816,7 +10817,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -10832,7 +10833,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -10876,7 +10877,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -10920,7 +10921,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -10948,7 +10949,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -10964,7 +10965,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -10978,7 +10979,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T9" s="6">
         <v>11</v>
@@ -10992,7 +10993,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -11008,7 +11009,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -11046,7 +11047,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -11068,7 +11069,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -11084,7 +11085,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -11106,7 +11107,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -11122,7 +11123,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -11162,7 +11163,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -11186,7 +11187,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -11202,7 +11203,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -11240,7 +11241,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -11280,7 +11281,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -11302,7 +11303,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -11318,7 +11319,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -11356,7 +11357,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -11378,7 +11379,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -11394,7 +11395,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -11418,7 +11419,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -11434,7 +11435,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -11458,7 +11459,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -11474,7 +11475,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -11512,7 +11513,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -11550,7 +11551,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -11588,7 +11589,7 @@
         <v>23</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -11612,7 +11613,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -11740,7 +11741,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -11772,7 +11773,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -11804,7 +11805,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -11836,7 +11837,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -11868,7 +11869,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -11932,7 +11933,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -11964,7 +11965,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -11996,7 +11997,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -12060,7 +12061,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -12092,7 +12093,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -12164,7 +12165,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -12200,7 +12201,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -12218,7 +12219,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -12258,7 +12259,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -12278,7 +12279,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -12318,7 +12319,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="8"/>
@@ -12358,7 +12359,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -12378,7 +12379,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -12396,7 +12397,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -12417,7 +12418,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -12438,7 +12439,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -12456,7 +12457,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -12476,7 +12477,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -12546,7 +12547,7 @@
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="185" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C1" s="186"/>
       <c r="D1" s="186"/>
@@ -12556,7 +12557,7 @@
       <c r="H1" s="187"/>
       <c r="J1" s="4"/>
       <c r="K1" s="188" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L1" s="189"/>
       <c r="M1" s="189"/>
@@ -12571,56 +12572,56 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="184" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T2" s="184"/>
       <c r="U2" s="184"/>
@@ -12816,7 +12817,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -14037,7 +14038,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="31.95" customHeight="1"/>
@@ -14063,19 +14064,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="38" customFormat="1" ht="43.95" customHeight="1">
-      <c r="A1" s="149" t="s">
-        <v>623</v>
-      </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="151"/>
+      <c r="A1" s="162" t="s">
+        <v>622</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="164"/>
       <c r="L1" s="84" t="s">
         <v>91</v>
       </c>
@@ -14086,24 +14087,24 @@
       <c r="A2" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153" t="s">
+      <c r="C2" s="156"/>
+      <c r="D2" s="165" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="153"/>
-      <c r="F2" s="154" t="s">
+      <c r="E2" s="165"/>
+      <c r="F2" s="166" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="156" t="s">
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="157"/>
-      <c r="K2" s="158"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="161"/>
       <c r="L2" s="87" t="s">
         <v>97</v>
       </c>
@@ -14117,25 +14118,25 @@
       <c r="A3" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="159" t="s">
+      <c r="C3" s="156"/>
+      <c r="D3" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="160"/>
-      <c r="F3" s="161" t="s">
+      <c r="E3" s="158"/>
+      <c r="F3" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="161"/>
+      <c r="G3" s="159"/>
       <c r="H3" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="156" t="s">
+      <c r="I3" s="160" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="158"/>
+      <c r="J3" s="161"/>
       <c r="K3" s="90" t="s">
         <v>105</v>
       </c>
@@ -14178,7 +14179,7 @@
       <c r="K4" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="L4" s="165" t="s">
+      <c r="L4" s="152" t="s">
         <v>116</v>
       </c>
       <c r="M4" s="91"/>
@@ -14195,7 +14196,7 @@
         <v>118</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D5" s="60" t="s">
         <v>119</v>
@@ -14207,7 +14208,7 @@
         <v>121</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H5" s="60" t="s">
         <v>122</v>
@@ -14219,9 +14220,9 @@
         <v>124</v>
       </c>
       <c r="K5" s="60" t="s">
-        <v>621</v>
-      </c>
-      <c r="L5" s="165"/>
+        <v>620</v>
+      </c>
+      <c r="L5" s="152"/>
       <c r="M5" s="91"/>
       <c r="P5" s="94"/>
       <c r="Q5" s="93"/>
@@ -14240,7 +14241,7 @@
         <v>126</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>147</v>
+        <v>613</v>
       </c>
       <c r="F6" s="64" t="s">
         <v>127</v>
@@ -14258,9 +14259,9 @@
         <v>131</v>
       </c>
       <c r="K6" s="70" t="s">
-        <v>622</v>
-      </c>
-      <c r="L6" s="165" t="s">
+        <v>621</v>
+      </c>
+      <c r="L6" s="152" t="s">
         <v>133</v>
       </c>
       <c r="M6" s="96"/>
@@ -14273,7 +14274,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C7" s="67" t="s">
         <v>135</v>
@@ -14281,8 +14282,8 @@
       <c r="D7" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="68" t="s">
-        <v>614</v>
+      <c r="E7" s="72" t="s">
+        <v>193</v>
       </c>
       <c r="F7" s="69" t="s">
         <v>137</v>
@@ -14294,7 +14295,7 @@
         <v>139</v>
       </c>
       <c r="I7" s="60" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J7" s="98" t="s">
         <v>141</v>
@@ -14302,7 +14303,7 @@
       <c r="K7" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="L7" s="165"/>
+      <c r="L7" s="152"/>
       <c r="M7" s="96"/>
       <c r="N7" s="99" t="s">
         <v>143</v>
@@ -14322,10 +14323,10 @@
         <v>146</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F8" s="65" t="s">
         <v>148</v>
@@ -14345,7 +14346,7 @@
       <c r="K8" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="L8" s="166" t="s">
+      <c r="L8" s="153" t="s">
         <v>154</v>
       </c>
       <c r="M8" s="100"/>
@@ -14370,27 +14371,27 @@
         <v>159</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F9" s="74" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G9" s="73" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H9" s="68" t="s">
         <v>161</v>
       </c>
       <c r="I9" s="71" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J9" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="K9" s="63" t="s">
-        <v>193</v>
-      </c>
-      <c r="L9" s="166"/>
+      <c r="K9" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9" s="153"/>
       <c r="M9" s="100"/>
       <c r="N9" s="94" t="s">
         <v>165</v>
@@ -14398,20 +14399,20 @@
       <c r="P9" s="94"/>
     </row>
     <row r="10" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="149" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="163"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="166"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="153"/>
       <c r="M10" s="100"/>
       <c r="N10" s="101" t="s">
         <v>167</v>
@@ -14421,20 +14422,20 @@
       </c>
     </row>
     <row r="11" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
-      <c r="A11" s="162" t="s">
+      <c r="A11" s="149" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="163"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="167" t="s">
+      <c r="B11" s="150"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="154" t="s">
         <v>170</v>
       </c>
       <c r="M11" s="103"/>
@@ -14444,20 +14445,20 @@
       <c r="P11" s="104"/>
     </row>
     <row r="12" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
-      <c r="A12" s="162" t="s">
+      <c r="A12" s="149" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="163"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="163"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="168"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="155"/>
       <c r="M12" s="105" t="s">
         <v>173</v>
       </c>
@@ -14472,57 +14473,57 @@
       </c>
     </row>
     <row r="13" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
-      <c r="A13" s="162" t="s">
+      <c r="A13" s="149" t="s">
+        <v>623</v>
+      </c>
+      <c r="B13" s="150"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="107" t="s">
         <v>175</v>
-      </c>
-      <c r="B13" s="163"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="164"/>
-      <c r="L13" s="107" t="s">
-        <v>176</v>
       </c>
       <c r="M13" s="103"/>
       <c r="N13" s="93" t="s">
+        <v>176</v>
+      </c>
+      <c r="P13" s="108" t="s">
         <v>177</v>
-      </c>
-      <c r="P13" s="108" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="31.95" customHeight="1">
       <c r="B14" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="D14" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="E14" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="F14" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="77" t="s">
+      <c r="G14" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="H14" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="H14" s="60" t="s">
+      <c r="I14" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="J14" s="66" t="s">
         <v>186</v>
-      </c>
-      <c r="J14" s="66" t="s">
-        <v>187</v>
       </c>
       <c r="K14" s="67" t="s">
         <v>132</v>
@@ -14530,27 +14531,27 @@
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1" ht="31.95" customHeight="1">
       <c r="A15" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="C15" s="80" t="s">
         <v>189</v>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>190</v>
       </c>
       <c r="D15" s="66" t="s">
         <v>146</v>
       </c>
       <c r="I15" s="60" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="55" customFormat="1" ht="31.95" customHeight="1">
       <c r="E16" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="73" t="s">
         <v>191</v>
-      </c>
-      <c r="F16" s="73" t="s">
-        <v>192</v>
       </c>
       <c r="G16" s="71" t="s">
         <v>160</v>
@@ -14559,7 +14560,7 @@
         <v>151</v>
       </c>
       <c r="J16" s="76" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="31.95" customHeight="1">
@@ -14571,15 +14572,18 @@
         <v>164</v>
       </c>
       <c r="J17" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="K17" s="63" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="31.95" customHeight="1">
       <c r="D18" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="I18" s="59" t="s">
         <v>194</v>
-      </c>
-      <c r="I18" s="59" t="s">
-        <v>195</v>
       </c>
       <c r="J18" s="59" t="s">
         <v>114</v>
@@ -14588,60 +14592,70 @@
     <row r="19" spans="2:11" ht="31.95" customHeight="1">
       <c r="B19" s="81"/>
       <c r="C19" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="E19" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="F19" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="G19" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="G19" s="77" t="s">
+      <c r="H19" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="I19" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="I19" s="60" t="s">
+      <c r="J19" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="J19" s="59" t="s">
+      <c r="K19" s="70" t="s">
         <v>203</v>
-      </c>
-      <c r="K19" s="70" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="31.95" customHeight="1">
       <c r="H20" s="70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="31.95" customHeight="1">
       <c r="D21" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="F21" s="60" t="s">
         <v>207</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>208</v>
       </c>
       <c r="G21" s="68" t="s">
         <v>136</v>
       </c>
       <c r="H21" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="I21" s="109" t="s">
         <v>209</v>
-      </c>
-      <c r="I21" s="109" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A10:K10"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="A13:K13"/>
@@ -14649,16 +14663,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14687,7 +14691,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="38" customFormat="1" ht="45">
       <c r="A1" s="169" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="170"/>
       <c r="C1" s="170"/>
@@ -14705,14 +14709,14 @@
         <v>92</v>
       </c>
       <c r="B2" s="172" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C2" s="172"/>
       <c r="D2" s="172"/>
       <c r="E2" s="172"/>
       <c r="F2" s="172"/>
       <c r="G2" s="173" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H2" s="173"/>
       <c r="I2" s="173"/>
@@ -14725,7 +14729,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>155</v>
@@ -14734,25 +14738,25 @@
         <v>25</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F3" s="44" t="s">
         <v>143</v>
       </c>
       <c r="G3" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="I3" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="J3" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="K3" s="43" t="s">
         <v>219</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>220</v>
       </c>
       <c r="M3" s="45"/>
     </row>
@@ -14761,22 +14765,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="D4" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="E4" s="45" t="s">
         <v>223</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>224</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H4" s="45" t="s">
         <v>147</v>
@@ -14785,10 +14789,10 @@
         <v>117</v>
       </c>
       <c r="J4" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="45" t="s">
         <v>226</v>
-      </c>
-      <c r="K4" s="45" t="s">
-        <v>227</v>
       </c>
       <c r="M4" s="48"/>
       <c r="N4" s="45"/>
@@ -14801,31 +14805,31 @@
         <v>14</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="48" t="s">
-        <v>229</v>
-      </c>
       <c r="F5" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="I5" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="J5" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="K5" s="48" t="s">
         <v>232</v>
-      </c>
-      <c r="K5" s="48" t="s">
-        <v>233</v>
       </c>
       <c r="M5" s="49"/>
       <c r="N5" s="45"/>
@@ -14838,31 +14842,31 @@
         <v>27</v>
       </c>
       <c r="C6" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="E6" s="50" t="s">
         <v>235</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>236</v>
       </c>
       <c r="F6" s="47" t="s">
         <v>171</v>
       </c>
       <c r="G6" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="I6" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="J6" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="K6" s="50" t="s">
         <v>240</v>
-      </c>
-      <c r="K6" s="50" t="s">
-        <v>241</v>
       </c>
       <c r="M6" s="52"/>
     </row>
@@ -14874,28 +14878,28 @@
         <v>19</v>
       </c>
       <c r="C7" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="E7" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="F7" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="G7" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="H7" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="I7" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="I7" s="51" t="s">
+      <c r="J7" s="51" t="s">
         <v>248</v>
-      </c>
-      <c r="J7" s="51" t="s">
-        <v>249</v>
       </c>
       <c r="K7" s="51" t="s">
         <v>174</v>
@@ -14910,34 +14914,34 @@
         <v>157</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>152</v>
       </c>
       <c r="E8" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="F8" s="52" t="s">
         <v>251</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>252</v>
       </c>
       <c r="G8" s="52" t="s">
         <v>144</v>
       </c>
       <c r="H8" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="I8" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="J8" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="K8" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="K8" s="51" t="s">
-        <v>256</v>
-      </c>
       <c r="M8" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N8" s="47"/>
     </row>
@@ -14989,7 +14993,7 @@
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="22.95" customHeight="1">
       <c r="A1" s="175" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1" s="176"/>
       <c r="C1" s="176"/>
@@ -15006,14 +15010,14 @@
       <c r="N1" s="33"/>
       <c r="O1" s="33"/>
       <c r="P1" s="178" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q1" s="178"/>
       <c r="R1" s="178"/>
       <c r="S1" s="178"/>
       <c r="T1" s="33"/>
       <c r="U1" s="178" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V1" s="178"/>
       <c r="W1" s="178"/>
@@ -15024,67 +15028,67 @@
     <row r="2" spans="1:26" ht="23.4">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>264</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I2" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>264</v>
       </c>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
       <c r="O2" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="P2" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="Q2" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="R2" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="S2" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>264</v>
       </c>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
       <c r="V2" s="17"/>
       <c r="W2" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="X2" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="Y2" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Z2" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="Z2" s="17" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="16.2">
@@ -15092,7 +15096,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -15102,7 +15106,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I3" s="34"/>
       <c r="J3" s="17"/>
@@ -15127,14 +15131,14 @@
         <v>44</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X3" s="17"/>
       <c r="Y3" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z3" s="17" t="s">
         <v>269</v>
-      </c>
-      <c r="Z3" s="17" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -15142,7 +15146,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -15163,7 +15167,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P4" s="34"/>
       <c r="Q4" s="17"/>
@@ -15174,10 +15178,10 @@
         <v>2</v>
       </c>
       <c r="V4" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="W4" s="17" t="s">
         <v>271</v>
-      </c>
-      <c r="W4" s="17" t="s">
-        <v>272</v>
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
@@ -15188,7 +15192,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -15198,7 +15202,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I5" s="35"/>
       <c r="J5" s="17"/>
@@ -15209,7 +15213,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P5" s="35"/>
       <c r="Q5" s="17"/>
@@ -15232,7 +15236,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -15264,7 +15268,7 @@
         <v>4</v>
       </c>
       <c r="V6" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
@@ -15276,7 +15280,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -15286,7 +15290,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="17"/>
@@ -15297,7 +15301,7 @@
         <v>5</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P7" s="34"/>
       <c r="Q7" s="17"/>
@@ -15308,7 +15312,7 @@
         <v>5</v>
       </c>
       <c r="V7" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
@@ -15330,7 +15334,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="17"/>
@@ -15352,7 +15356,7 @@
         <v>6</v>
       </c>
       <c r="V8" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
@@ -15363,62 +15367,62 @@
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>264</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I9" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="J9" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="K9" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="L9" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>264</v>
       </c>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
       <c r="P9" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q9" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="Q9" s="17" t="s">
+      <c r="R9" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="R9" s="17" t="s">
+      <c r="S9" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>264</v>
       </c>
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
       <c r="V9" s="17"/>
       <c r="W9" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="X9" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="X9" s="17" t="s">
+      <c r="Y9" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="Y9" s="17" t="s">
+      <c r="Z9" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="Z9" s="17" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -15426,7 +15430,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -15436,7 +15440,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -15458,7 +15462,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
@@ -15470,7 +15474,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -15480,7 +15484,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -15491,7 +15495,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
@@ -15502,7 +15506,7 @@
         <v>2</v>
       </c>
       <c r="V11" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
@@ -15514,7 +15518,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -15524,7 +15528,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -15546,7 +15550,7 @@
         <v>3</v>
       </c>
       <c r="V12" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
@@ -15558,7 +15562,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -15590,7 +15594,7 @@
         <v>4</v>
       </c>
       <c r="V13" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
@@ -15602,7 +15606,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -15623,7 +15627,7 @@
         <v>5</v>
       </c>
       <c r="O14" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
@@ -15634,7 +15638,7 @@
         <v>5</v>
       </c>
       <c r="V14" s="36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
@@ -15646,7 +15650,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -15656,7 +15660,7 @@
         <v>6</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
@@ -15667,7 +15671,7 @@
         <v>6</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
@@ -15678,7 +15682,7 @@
         <v>6</v>
       </c>
       <c r="V15" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
@@ -15689,30 +15693,30 @@
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="E16" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="F16" s="32" t="s">
         <v>263</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>264</v>
       </c>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
       <c r="P16" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q16" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="Q16" s="17" t="s">
+      <c r="R16" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="R16" s="17" t="s">
+      <c r="S16" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="S16" s="17" t="s">
-        <v>264</v>
       </c>
       <c r="T16" s="17"/>
     </row>
@@ -15721,7 +15725,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -15731,7 +15735,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
@@ -15744,7 +15748,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -15754,7 +15758,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
@@ -15767,7 +15771,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -15777,7 +15781,7 @@
         <v>3</v>
       </c>
       <c r="O19" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
@@ -15790,7 +15794,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -15836,7 +15840,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -15846,7 +15850,7 @@
         <v>6</v>
       </c>
       <c r="O22" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
@@ -15895,7 +15899,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="34.049999999999997" customHeight="1">
       <c r="A1" s="179" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B1" s="180"/>
       <c r="C1" s="180"/>
@@ -15940,7 +15944,7 @@
         <v>7.13</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K2" s="13">
         <v>8.1999999999999993</v>
@@ -15960,22 +15964,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>314</v>
-      </c>
       <c r="G3" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>30</v>
@@ -15984,10 +15988,10 @@
         <v>22</v>
       </c>
       <c r="J3" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>315</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>316</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>9</v>
@@ -16007,31 +16011,31 @@
         <v>165</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>313</v>
-      </c>
       <c r="I4" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>157</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>18</v>
@@ -16046,22 +16050,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>320</v>
-      </c>
       <c r="D5" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>144</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14" t="s">
@@ -16069,10 +16073,10 @@
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -16087,26 +16091,26 @@
         <v>67</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>324</v>
-      </c>
       <c r="F6" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -16118,16 +16122,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>67</v>
@@ -16148,16 +16152,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -16176,13 +16180,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -16206,7 +16210,7 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -16226,11 +16230,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -16250,11 +16254,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -16274,11 +16278,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -16554,7 +16558,7 @@
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="182" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C1" s="182"/>
       <c r="D1" s="182"/>
@@ -16564,7 +16568,7 @@
       <c r="H1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="183" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L1" s="183"/>
       <c r="M1" s="183"/>
@@ -16579,56 +16583,56 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="184" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T2" s="184"/>
       <c r="U2" s="184"/>
@@ -16658,7 +16662,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L3" s="6">
         <v>13</v>
@@ -16710,7 +16714,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L4" s="6">
         <v>6</v>
@@ -16742,7 +16746,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -16762,7 +16766,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -16816,7 +16820,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L6" s="6">
         <v>4</v>
@@ -16868,7 +16872,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L7" s="6">
         <v>1</v>
@@ -16920,7 +16924,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L8" s="6">
         <v>2</v>
@@ -16952,7 +16956,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
@@ -16972,7 +16976,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -16990,7 +16994,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T9" s="6">
         <v>6</v>
@@ -17004,7 +17008,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -17024,7 +17028,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L10" s="6">
         <v>1</v>
@@ -17050,7 +17054,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -17070,7 +17074,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L11" s="6">
         <v>1</v>
@@ -17096,7 +17100,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
@@ -17116,7 +17120,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L12" s="6">
         <v>1</v>
@@ -17142,7 +17146,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
@@ -17162,7 +17166,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -17208,7 +17212,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -17236,7 +17240,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -17256,7 +17260,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -17304,7 +17308,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -17352,7 +17356,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L17" s="6">
         <v>0</v>
@@ -17380,7 +17384,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
@@ -17400,7 +17404,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -17426,7 +17430,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C19" s="6">
         <v>2</v>
@@ -17448,7 +17452,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C20" s="6">
         <v>2</v>
@@ -17558,7 +17562,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
@@ -17668,7 +17672,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -17712,7 +17716,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -17756,7 +17760,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C34" s="6">
         <v>0</v>
@@ -17778,7 +17782,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -17844,7 +17848,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -17866,7 +17870,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -17912,7 +17916,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -17934,7 +17938,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -17980,7 +17984,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C44" s="6">
         <v>0</v>
@@ -18004,7 +18008,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C45" s="6">
         <v>0</v>
@@ -18026,7 +18030,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -18048,7 +18052,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -18072,7 +18076,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C48" s="6">
         <v>0</v>
@@ -18166,7 +18170,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C52" s="6">
         <v>0</v>
@@ -18188,7 +18192,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C53" s="6">
         <v>0</v>
@@ -18236,7 +18240,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C55" s="6">
         <v>0</v>
@@ -18371,7 +18375,7 @@
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="182" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C1" s="182"/>
       <c r="D1" s="182"/>
@@ -18381,7 +18385,7 @@
       <c r="H1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="183" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L1" s="183"/>
       <c r="M1" s="183"/>
@@ -18396,56 +18400,56 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="184" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T2" s="184"/>
       <c r="U2" s="184"/>
@@ -18475,7 +18479,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L3" s="6">
         <v>3</v>
@@ -18527,7 +18531,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L4" s="6">
         <v>2</v>
@@ -18579,7 +18583,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -18611,7 +18615,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C6" s="6">
         <v>6</v>
@@ -18631,7 +18635,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -18683,7 +18687,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -18715,7 +18719,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
@@ -18735,7 +18739,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -18767,7 +18771,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C9" s="6">
         <v>4</v>
@@ -18787,7 +18791,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L9" s="6">
         <v>1</v>
@@ -18805,7 +18809,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T9" s="6">
         <v>6</v>
@@ -18839,7 +18843,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -18865,7 +18869,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C11" s="6">
         <v>4</v>
@@ -18885,7 +18889,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L11" s="6">
         <v>2</v>
@@ -18931,7 +18935,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -18977,7 +18981,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -19003,7 +19007,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
@@ -19023,7 +19027,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -19049,7 +19053,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -19069,7 +19073,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -19115,7 +19119,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -19141,7 +19145,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -19161,7 +19165,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L17" s="6">
         <v>0</v>
@@ -19187,7 +19191,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
@@ -19207,7 +19211,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -19255,7 +19259,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L19" s="6">
         <v>0</v>
@@ -19301,7 +19305,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L20" s="6">
         <v>0</v>
@@ -19347,7 +19351,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L21" s="6">
         <v>0</v>
@@ -19373,7 +19377,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -19395,7 +19399,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -19483,7 +19487,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -19505,7 +19509,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -19549,7 +19553,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -19571,7 +19575,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -19593,7 +19597,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -19615,7 +19619,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
@@ -19727,7 +19731,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -19749,7 +19753,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -19795,7 +19799,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -19841,7 +19845,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C43" s="6">
         <v>0</v>
@@ -19863,7 +19867,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C44" s="6">
         <v>0</v>
@@ -19935,7 +19939,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -19959,7 +19963,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C48" s="6">
         <v>0</v>
@@ -20005,7 +20009,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C50" s="6">
         <v>0</v>
@@ -20029,7 +20033,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C51" s="6">
         <v>0</v>
@@ -20073,7 +20077,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C53" s="6">
         <v>0</v>
@@ -20203,7 +20207,7 @@
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="182" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C1" s="182"/>
       <c r="D1" s="182"/>
@@ -20213,7 +20217,7 @@
       <c r="H1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="183" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L1" s="183"/>
       <c r="M1" s="183"/>
@@ -20228,56 +20232,56 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="184" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T2" s="184"/>
       <c r="U2" s="184"/>
@@ -20307,7 +20311,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L3" s="6">
         <v>8</v>
@@ -20355,7 +20359,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L4" s="6">
         <v>9</v>
@@ -20403,7 +20407,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L5" s="6">
         <v>1</v>
@@ -20431,7 +20435,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C6" s="6">
         <v>5</v>
@@ -20451,7 +20455,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L6" s="6">
         <v>2</v>
@@ -20499,7 +20503,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L7" s="6">
         <v>2</v>
@@ -20527,7 +20531,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -20547,7 +20551,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -20575,7 +20579,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -20595,7 +20599,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -20613,7 +20617,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -20643,7 +20647,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -20669,7 +20673,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
@@ -20689,7 +20693,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -20735,7 +20739,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -20783,7 +20787,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -20809,7 +20813,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
@@ -20829,7 +20833,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -20857,7 +20861,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -20877,7 +20881,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -20905,7 +20909,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C16" s="6">
         <v>3</v>
@@ -20925,7 +20929,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -20971,7 +20975,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L17" s="6">
         <v>0</v>
@@ -20997,7 +21001,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -21017,7 +21021,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -21045,7 +21049,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -21089,7 +21093,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C21" s="6">
         <v>2</v>
@@ -21150,7 +21154,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="K23" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="19.95" customHeight="1">
@@ -21180,7 +21184,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -21270,7 +21274,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C29" s="6">
         <v>1</v>
@@ -21292,7 +21296,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -21402,7 +21406,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -21446,7 +21450,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="6">
         <v>0</v>
@@ -21468,7 +21472,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -21490,7 +21494,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -21646,7 +21650,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -21670,7 +21674,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -21692,7 +21696,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C48" s="6">
         <v>0</v>
@@ -21738,7 +21742,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C50" s="6">
         <v>0</v>
@@ -21784,7 +21788,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C52" s="6">
         <v>0</v>
@@ -21830,7 +21834,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C54" s="6">
         <v>0</v>
@@ -21854,7 +21858,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C55" s="6">
         <v>0</v>
@@ -21878,7 +21882,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C56" s="6">
         <v>0</v>
@@ -21900,7 +21904,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C57" s="6">
         <v>0</v>
@@ -21962,7 +21966,7 @@
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="185" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C1" s="186"/>
       <c r="D1" s="186"/>
@@ -21972,7 +21976,7 @@
       <c r="H1" s="187"/>
       <c r="J1" s="4"/>
       <c r="K1" s="188" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L1" s="189"/>
       <c r="M1" s="189"/>
@@ -21987,56 +21991,56 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="184" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T2" s="184"/>
       <c r="U2" s="184"/>
@@ -22046,7 +22050,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C3" s="6">
         <v>12</v>
@@ -22066,7 +22070,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L3" s="6">
         <v>7</v>
@@ -22098,7 +22102,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C4" s="6">
         <v>9</v>
@@ -22118,7 +22122,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L4" s="6">
         <v>1</v>
@@ -22170,7 +22174,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L5" s="6">
         <v>1</v>
@@ -22202,7 +22206,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C6" s="6">
         <v>6</v>
@@ -22222,7 +22226,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L6" s="6">
         <v>1</v>
@@ -22254,7 +22258,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
@@ -22274,7 +22278,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L7" s="6">
         <v>3</v>
@@ -22326,7 +22330,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L8" s="6">
         <v>1</v>
@@ -22358,7 +22362,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -22378,7 +22382,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L9" s="6">
         <v>1</v>
@@ -22396,7 +22400,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T9" s="6">
         <v>7</v>
@@ -22430,7 +22434,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L10" s="6">
         <v>2</v>
@@ -22476,7 +22480,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -22502,7 +22506,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -22522,7 +22526,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L12" s="6">
         <v>2</v>
@@ -22548,7 +22552,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
@@ -22568,7 +22572,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L13" s="6">
         <v>1</v>
@@ -22594,7 +22598,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -22614,7 +22618,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L14" s="6">
         <v>2</v>
@@ -22640,7 +22644,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
@@ -22660,7 +22664,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L15" s="6">
         <v>2</v>
@@ -22706,7 +22710,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -22752,7 +22756,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L17" s="6">
         <v>1</v>
@@ -22798,7 +22802,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -22824,7 +22828,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -22846,7 +22850,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L19" s="6">
         <v>4</v>
@@ -22872,7 +22876,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -22892,7 +22896,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L20" s="6">
         <v>2</v>
@@ -22938,7 +22942,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L21" s="6">
         <v>0</v>
@@ -22984,7 +22988,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L22" s="6">
         <v>2</v>
@@ -23010,7 +23014,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -23030,7 +23034,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L23" s="6">
         <v>0</v>
@@ -23076,7 +23080,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L24" s="6">
         <v>0</v>
@@ -23122,7 +23126,7 @@
         <v>23</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L25" s="6">
         <v>1</v>
@@ -23168,7 +23172,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L26" s="6">
         <v>0</v>
@@ -23214,7 +23218,7 @@
         <v>25</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L27" s="6">
         <v>0</v>
@@ -23260,7 +23264,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L28" s="6">
         <v>0</v>
@@ -23286,7 +23290,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -23306,7 +23310,7 @@
         <v>27</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L29" s="6">
         <v>1</v>
@@ -23354,7 +23358,7 @@
         <v>28</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L30" s="6">
         <v>0</v>
@@ -23380,7 +23384,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -23400,7 +23404,7 @@
         <v>29</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L31" s="6">
         <v>1</v>
@@ -23426,7 +23430,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -23446,7 +23450,7 @@
         <v>30</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L32" s="6">
         <v>0</v>
@@ -23496,7 +23500,7 @@
         <v>31</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L33" s="6">
         <v>0</v>
@@ -23544,7 +23548,7 @@
         <v>32</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L34" s="6">
         <v>0</v>
@@ -23572,7 +23576,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -23592,7 +23596,7 @@
         <v>33</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L35" s="6">
         <v>0</v>
@@ -23642,7 +23646,7 @@
         <v>34</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L36" s="6">
         <v>0</v>
@@ -23670,7 +23674,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C37" s="6">
         <v>0</v>
@@ -23690,7 +23694,7 @@
         <v>35</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L37" s="6">
         <v>0</v>
@@ -23738,7 +23742,7 @@
         <v>36</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L38" s="6">
         <v>0</v>
@@ -23766,7 +23770,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -23786,7 +23790,7 @@
         <v>37</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L39" s="6">
         <v>0</v>
@@ -23836,7 +23840,7 @@
         <v>38</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L40" s="6">
         <v>0</v>
@@ -23864,7 +23868,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -23886,7 +23890,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -23908,7 +23912,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C43" s="6">
         <v>0</v>
@@ -23930,7 +23934,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C44" s="6">
         <v>0</v>
@@ -23954,7 +23958,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C45" s="6">
         <v>0</v>
@@ -24044,7 +24048,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C49" s="6">
         <v>0</v>
@@ -24066,7 +24070,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C50" s="6">
         <v>0</v>
@@ -24136,7 +24140,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C53" s="6">
         <v>0</v>
@@ -24201,7 +24205,7 @@
     </row>
     <row r="57" spans="1:8" ht="19.95" customHeight="1">
       <c r="A57" s="191" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B57" s="191"/>
       <c r="C57" s="191"/>
@@ -24213,7 +24217,7 @@
     </row>
     <row r="58" spans="1:8" ht="19.95" customHeight="1">
       <c r="A58" s="191" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B58" s="191"/>
       <c r="C58" s="191"/>
